--- a/biology/Zoologie/Grive_des_Célèbes/Grive_des_Célèbes.xlsx
+++ b/biology/Zoologie/Grive_des_Célèbes/Grive_des_Célèbes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grive_des_C%C3%A9l%C3%A8bes</t>
+          <t>Grive_des_Célèbes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zoothera heinrichi
 La Grive des Célèbes (Zoothera heinrichi, anciennement Geomalia heinrichi) est une espèce de passereaux de la famille des Turdidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grive_des_C%C3%A9l%C3%A8bes</t>
+          <t>Grive_des_Célèbes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Célèbes (ou Sulawesi) en Indonésie. Elle vit dans les forêts primaires de montagne, notamment les forêts avec de la mousse et les forêts naines, entre 1 700 et 3 400 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Célèbes (ou Sulawesi) en Indonésie. Elle vit dans les forêts primaires de montagne, notamment les forêts avec de la mousse et les forêts naines, entre 1 700 et 3 400 m d'altitude.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grive_des_C%C3%A9l%C3%A8bes</t>
+          <t>Grive_des_Célèbes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans leur étude des relations phylogéniques de cette espèce, Olsson et Alström (2013) montrent que cette espèce est probablement assez proches des espèces du genre Zoothera pour y être placée. Elle était auparavant placée dans le genre Geomalia Stresemann, 1931. Le Congrès ornithologique international répercute ces changements dans sa classification de référence version 3.5 (2013).
 </t>
